--- a/A01022382_BasedeDatos.xlsx
+++ b/A01022382_BasedeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Desktop/Escuela/Tercer Semestre/Matematicas y Ciencias de Datos/Ciencia de Datos - Tec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B2CBEA-69A7-6847-B033-895B22B8FEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B95E5F5-B4CD-0942-AF7D-3045FB37B7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19900" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2981,10 +2981,18 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="1">
+        <v>1346</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>345.4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>111.4</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="M39" s="4">
         <v>7</v>
@@ -3005,10 +3013,18 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="D40" s="1">
+        <v>2367</v>
+      </c>
+      <c r="E40" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F40" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>140.9</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="M40" s="4">
         <v>8</v>
@@ -3029,10 +3045,18 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="D41" s="1">
+        <v>1119</v>
+      </c>
+      <c r="E41" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G41" s="1">
+        <v>97.3</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="M41" s="4">
         <v>9</v>
@@ -3053,10 +3077,18 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="D42" s="1">
+        <v>1103</v>
+      </c>
+      <c r="E42" s="1">
+        <v>129.5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="G42" s="1">
+        <v>84.2</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="M42" s="4">
         <v>10</v>
@@ -3077,10 +3109,18 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="D43" s="1">
+        <v>2140</v>
+      </c>
+      <c r="E43" s="1">
+        <v>236.9</v>
+      </c>
+      <c r="F43" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>102.4</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="M43" s="4">
         <v>11</v>
@@ -3101,10 +3141,18 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="1">
+        <v>1822</v>
+      </c>
+      <c r="E44" s="1">
+        <v>171.3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>79.7</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="M44" s="4">
         <v>12</v>
@@ -3125,10 +3173,18 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="1">
+        <v>1898</v>
+      </c>
+      <c r="E45" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>208.4</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="M45" s="4">
         <v>13</v>
